--- a/formatted_vals.xlsx
+++ b/formatted_vals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbasahmed/school/214-p3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA94E4E-D096-F94E-9D5C-7BD8FBCCB747}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FF153B-08DB-6C4A-AEB0-39C6CE7AED79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3560" windowWidth="27640" windowHeight="16940" xr2:uid="{5F2BB81F-0924-B843-946E-BB6A1BDCA963}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="18440" windowHeight="23540" xr2:uid="{5F2BB81F-0924-B843-946E-BB6A1BDCA963}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4DCB80-EBDF-4A47-B0C1-5161E2BF28D7}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
